--- a/config_12.28/shoping_config_cjj.xlsx
+++ b/config_12.28/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="2184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6171" uniqueCount="2191">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8456,6 +8456,34 @@
   </si>
   <si>
     <t>"jing_bi","jing_bi","prop_tiny_game_coin","jing_bi",</t>
+  </si>
+  <si>
+    <t>新年福利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"880万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>8800000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11438,13 +11466,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIG788"/>
+  <dimension ref="A1:AIG790"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q652" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X787" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A671" sqref="A671:XFD682"/>
+      <selection pane="bottomRight" activeCell="AB791" sqref="AB791"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -70743,6 +70771,136 @@
         <v>1</v>
       </c>
     </row>
+    <row r="789" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A789" s="21">
+        <v>788</v>
+      </c>
+      <c r="B789" s="31">
+        <v>10705</v>
+      </c>
+      <c r="F789" s="31">
+        <v>1</v>
+      </c>
+      <c r="G789" s="31" t="s">
+        <v>2184</v>
+      </c>
+      <c r="K789" s="31" t="s">
+        <v>2185</v>
+      </c>
+      <c r="M789" s="31">
+        <v>-31</v>
+      </c>
+      <c r="N789" s="31">
+        <v>0</v>
+      </c>
+      <c r="O789" s="31">
+        <v>0</v>
+      </c>
+      <c r="P789" s="31" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q789" s="31">
+        <v>19800</v>
+      </c>
+      <c r="R789" s="31" t="s">
+        <v>2186</v>
+      </c>
+      <c r="S789" s="56" t="s">
+        <v>2187</v>
+      </c>
+      <c r="X789" s="31" t="s">
+        <v>2188</v>
+      </c>
+      <c r="Y789" s="31">
+        <v>99999999</v>
+      </c>
+      <c r="Z789" s="31">
+        <v>1640649600</v>
+      </c>
+      <c r="AA789" s="31">
+        <v>1641225599</v>
+      </c>
+      <c r="AB789" s="31">
+        <v>96</v>
+      </c>
+      <c r="AI789" s="31">
+        <v>1</v>
+      </c>
+      <c r="AJ789" s="31">
+        <v>1</v>
+      </c>
+      <c r="AM789" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN789" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A790" s="21">
+        <v>789</v>
+      </c>
+      <c r="B790" s="31">
+        <v>10706</v>
+      </c>
+      <c r="F790" s="31">
+        <v>1</v>
+      </c>
+      <c r="G790" s="31" t="s">
+        <v>2184</v>
+      </c>
+      <c r="K790" s="31" t="s">
+        <v>2185</v>
+      </c>
+      <c r="M790" s="31">
+        <v>-31</v>
+      </c>
+      <c r="N790" s="31">
+        <v>0</v>
+      </c>
+      <c r="O790" s="31">
+        <v>0</v>
+      </c>
+      <c r="P790" s="31" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q790" s="31">
+        <v>40000</v>
+      </c>
+      <c r="R790" s="31" t="s">
+        <v>2189</v>
+      </c>
+      <c r="S790" s="56" t="s">
+        <v>2187</v>
+      </c>
+      <c r="X790" s="31" t="s">
+        <v>2190</v>
+      </c>
+      <c r="Y790" s="31">
+        <v>99999999</v>
+      </c>
+      <c r="Z790" s="31">
+        <v>1640649600</v>
+      </c>
+      <c r="AA790" s="31">
+        <v>1641225599</v>
+      </c>
+      <c r="AB790" s="31">
+        <v>96</v>
+      </c>
+      <c r="AI790" s="31">
+        <v>1</v>
+      </c>
+      <c r="AJ790" s="31">
+        <v>1</v>
+      </c>
+      <c r="AM790" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN790" s="31">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="H738:H749"/>

--- a/config_12.28/shoping_config_cjj.xlsx
+++ b/config_12.28/shoping_config_cjj.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6171" uniqueCount="2191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6177" uniqueCount="2195">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8483,6 +8483,20 @@
   </si>
   <si>
     <t>9999999999,1,0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_center_can_show_v6</t>
+  </si>
+  <si>
+    <t>condi_key|显示权限</t>
+  </si>
+  <si>
+    <t>condi_key|显示权限</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_center_can_show_v6</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -9471,10 +9485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9505,10 +9519,11 @@
     <col min="30" max="30" width="13" style="14" customWidth="1"/>
     <col min="31" max="32" width="12.125" style="14" customWidth="1"/>
     <col min="33" max="34" width="21.375" style="14" customWidth="1"/>
-    <col min="35" max="16384" width="8.75" style="14"/>
+    <col min="35" max="35" width="29" style="14" customWidth="1"/>
+    <col min="36" max="16384" width="8.75" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9611,8 +9626,11 @@
       <c r="AH1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI1" s="1" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -9696,7 +9714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -9780,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -9864,7 +9882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -9950,7 +9968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -10036,7 +10054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -10122,7 +10140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -10206,7 +10224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -10291,8 +10309,11 @@
       <c r="AF9" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI9" s="14" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -10378,8 +10399,11 @@
       <c r="AF10" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI10" s="14" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -10465,7 +10489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -10545,7 +10569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -10625,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -10705,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -10785,7 +10809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -11468,11 +11492,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AIG790"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="X787" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB791" sqref="AB791"/>
+      <selection pane="bottomRight" activeCell="Y789" sqref="Y789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -70812,7 +70836,7 @@
         <v>2188</v>
       </c>
       <c r="Y789" s="31">
-        <v>99999999</v>
+        <v>200</v>
       </c>
       <c r="Z789" s="31">
         <v>1640649600</v>
@@ -72304,10 +72328,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -72334,10 +72358,11 @@
     <col min="26" max="27" width="12.125" style="14" customWidth="1"/>
     <col min="28" max="29" width="21.375" style="14" customWidth="1"/>
     <col min="30" max="30" width="42.875" style="14" customWidth="1"/>
-    <col min="31" max="16384" width="8.75" style="14"/>
+    <col min="31" max="31" width="26.125" style="14" customWidth="1"/>
+    <col min="32" max="16384" width="8.75" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1736</v>
       </c>
@@ -72428,8 +72453,11 @@
       <c r="AD1" s="1" t="s">
         <v>1743</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE1" s="1" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -72500,7 +72528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -72571,7 +72599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -72642,7 +72670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -72713,7 +72741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -72784,7 +72812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -72855,7 +72883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -72921,7 +72949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -72987,7 +73015,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -73053,7 +73081,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -73119,7 +73147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -73190,7 +73218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -73260,8 +73288,11 @@
       <c r="AA13" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE13" s="14" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -73331,8 +73362,11 @@
       <c r="AA14" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE14" s="14" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -73402,7 +73436,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>15</v>
       </c>
